--- a/outputs/Slight_rate_ranges_F.xlsx
+++ b/outputs/Slight_rate_ranges_F.xlsx
@@ -35,10 +35,10 @@
     <t>car/taxi</t>
   </si>
   <si>
-    <t>light goods</t>
-  </si>
-  <si>
-    <t>heavy goods</t>
+    <t>van</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
   <si>
     <t>motorcycle</t>
@@ -121,19 +121,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>211.19812587903485</v>
+        <v>211.1966352853308</v>
       </c>
       <c r="C2" t="n">
-        <v>468.23981346375854</v>
+        <v>468.24187295883286</v>
       </c>
       <c r="D2" t="n">
-        <v>252.53525541539892</v>
+        <v>252.5159758637336</v>
       </c>
       <c r="E2" t="n">
-        <v>395.06891779971164</v>
+        <v>394.99331987935324</v>
       </c>
       <c r="F2" t="n">
-        <v>334.6649546970742</v>
+        <v>334.63619890800345</v>
       </c>
     </row>
     <row r="3">
@@ -141,19 +141,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>95.548528075825</v>
+        <v>95.25437191400158</v>
       </c>
       <c r="C3" t="n">
-        <v>208.48541306207275</v>
+        <v>208.72591150134284</v>
       </c>
       <c r="D3" t="n">
-        <v>96.87943225289536</v>
+        <v>96.8313316735505</v>
       </c>
       <c r="E3" t="n">
-        <v>120.13754672087732</v>
+        <v>119.927289806304</v>
       </c>
       <c r="F3" t="n">
-        <v>123.44755424512063</v>
+        <v>123.32254525307278</v>
       </c>
     </row>
     <row r="4">
@@ -161,19 +161,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>90.40968886090401</v>
+        <v>90.46064629320837</v>
       </c>
       <c r="C4" t="n">
-        <v>190.24618570042202</v>
+        <v>190.21357212529853</v>
       </c>
       <c r="D4" t="n">
-        <v>221.451443976602</v>
+        <v>220.50897476455788</v>
       </c>
       <c r="E4" t="n">
-        <v>185.16539973803802</v>
+        <v>185.32394474180677</v>
       </c>
       <c r="F4" t="n">
-        <v>131.16539363691217</v>
+        <v>131.11025010795058</v>
       </c>
     </row>
     <row r="5">
@@ -181,19 +181,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>589.2493252223962</v>
+        <v>588.0928595846062</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.807562936311</v>
+        <v>1249.2038662329496</v>
       </c>
       <c r="D5" t="n">
-        <v>387.6385379420638</v>
+        <v>387.4390315046154</v>
       </c>
       <c r="E5" t="n">
-        <v>347.1070935940215</v>
+        <v>347.7919579182355</v>
       </c>
       <c r="F5" t="n">
-        <v>550.3535627798042</v>
+        <v>550.406698457541</v>
       </c>
     </row>
     <row r="6">
@@ -201,19 +201,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>461.37824026434896</v>
+        <v>463.6086397822694</v>
       </c>
       <c r="C6" t="n">
-        <v>1134.9397448664347</v>
+        <v>1131.9646585699982</v>
       </c>
       <c r="D6" t="n">
-        <v>609.4400458121271</v>
+        <v>606.9976845926371</v>
       </c>
       <c r="E6" t="n">
-        <v>757.3442198117978</v>
+        <v>757.6743001152771</v>
       </c>
       <c r="F6" t="n">
-        <v>796.4167500640052</v>
+        <v>795.798989807327</v>
       </c>
     </row>
     <row r="7">
@@ -221,19 +221,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>629.9361166813577</v>
+        <v>625.3266763621372</v>
       </c>
       <c r="C7" t="n">
-        <v>274.71852773047146</v>
+        <v>274.72471797462543</v>
       </c>
       <c r="D7" t="n">
-        <v>72.89666183893316</v>
+        <v>72.32913406479648</v>
       </c>
       <c r="E7" t="n">
-        <v>82.46122468487087</v>
+        <v>82.56110250860571</v>
       </c>
       <c r="F7" t="n">
-        <v>116.56803047558526</v>
+        <v>116.47325041612233</v>
       </c>
     </row>
   </sheetData>
@@ -272,19 +272,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>211.20912805463428</v>
+        <v>211.17968265917227</v>
       </c>
       <c r="C2" t="n">
-        <v>468.2278742408159</v>
+        <v>468.23769979201785</v>
       </c>
       <c r="D2" t="n">
-        <v>252.53679317282558</v>
+        <v>252.48951019259238</v>
       </c>
       <c r="E2" t="n">
-        <v>395.07125064623165</v>
+        <v>394.96829150127775</v>
       </c>
       <c r="F2" t="n">
-        <v>334.65963068758776</v>
+        <v>334.6241313585783</v>
       </c>
     </row>
     <row r="3">
@@ -292,19 +292,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>95.56692607723411</v>
+        <v>95.18999588115196</v>
       </c>
       <c r="C3" t="n">
-        <v>208.6022714002068</v>
+        <v>208.46417323618897</v>
       </c>
       <c r="D3" t="n">
-        <v>96.58808070204162</v>
+        <v>96.6927056304735</v>
       </c>
       <c r="E3" t="n">
-        <v>120.08856560712078</v>
+        <v>119.90438338215081</v>
       </c>
       <c r="F3" t="n">
-        <v>123.40766388470493</v>
+        <v>123.32774272249043</v>
       </c>
     </row>
     <row r="4">
@@ -312,19 +312,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>90.36502717206724</v>
+        <v>90.30275606485014</v>
       </c>
       <c r="C4" t="n">
-        <v>189.4419202853038</v>
+        <v>190.09250146305408</v>
       </c>
       <c r="D4" t="n">
-        <v>221.2897305278819</v>
+        <v>219.35406228735292</v>
       </c>
       <c r="E4" t="n">
-        <v>183.81179785843307</v>
+        <v>183.86564722107937</v>
       </c>
       <c r="F4" t="n">
-        <v>131.06804426366114</v>
+        <v>131.13804885414652</v>
       </c>
     </row>
     <row r="5">
@@ -332,19 +332,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>588.3412678766165</v>
+        <v>586.3786928364851</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.080091478328</v>
+        <v>1246.9490372120204</v>
       </c>
       <c r="D5" t="n">
-        <v>386.0988449197455</v>
+        <v>386.7122772035107</v>
       </c>
       <c r="E5" t="n">
-        <v>347.02808983040285</v>
+        <v>347.90220990432607</v>
       </c>
       <c r="F5" t="n">
-        <v>550.2108907777239</v>
+        <v>550.0019719500865</v>
       </c>
     </row>
     <row r="6">
@@ -352,19 +352,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>460.1921618948053</v>
+        <v>463.5111856067827</v>
       </c>
       <c r="C6" t="n">
-        <v>1134.3129746703116</v>
+        <v>1131.9961828741189</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9323739400088</v>
+        <v>605.8289085248241</v>
       </c>
       <c r="E6" t="n">
-        <v>757.4261565338113</v>
+        <v>757.8778519516281</v>
       </c>
       <c r="F6" t="n">
-        <v>796.2284525685425</v>
+        <v>795.8770561455681</v>
       </c>
     </row>
     <row r="7">
@@ -372,19 +372,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>625.7825618894915</v>
+        <v>623.139220785994</v>
       </c>
       <c r="C7" t="n">
-        <v>274.2133429033932</v>
+        <v>274.3583180173011</v>
       </c>
       <c r="D7" t="n">
-        <v>72.5407937119271</v>
+        <v>72.05067837418721</v>
       </c>
       <c r="E7" t="n">
-        <v>82.39442483242183</v>
+        <v>82.34925647149274</v>
       </c>
       <c r="F7" t="n">
-        <v>116.47182437084744</v>
+        <v>116.4278479528214</v>
       </c>
     </row>
   </sheetData>
@@ -423,19 +423,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>209.88468282644763</v>
+        <v>209.87589719789193</v>
       </c>
       <c r="C2" t="n">
-        <v>465.9982872482483</v>
+        <v>466.0275476693537</v>
       </c>
       <c r="D2" t="n">
-        <v>250.8155154838601</v>
+        <v>250.81961538685863</v>
       </c>
       <c r="E2" t="n">
-        <v>393.39279858252036</v>
+        <v>393.3947374447248</v>
       </c>
       <c r="F2" t="n">
-        <v>333.79636117754546</v>
+        <v>333.7283062342848</v>
       </c>
     </row>
     <row r="3">
@@ -443,19 +443,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>90.11678323905305</v>
+        <v>90.27709231157749</v>
       </c>
       <c r="C3" t="n">
-        <v>197.76106608288237</v>
+        <v>199.21426765772455</v>
       </c>
       <c r="D3" t="n">
-        <v>90.84974531904265</v>
+        <v>90.60328201267565</v>
       </c>
       <c r="E3" t="n">
-        <v>114.68317241676905</v>
+        <v>114.10542350153152</v>
       </c>
       <c r="F3" t="n">
-        <v>120.061590284731</v>
+        <v>120.00069221946383</v>
       </c>
     </row>
     <row r="4">
@@ -463,19 +463,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>82.48325204567357</v>
+        <v>82.86155389969075</v>
       </c>
       <c r="C4" t="n">
-        <v>168.89222881704686</v>
+        <v>169.98457680451375</v>
       </c>
       <c r="D4" t="n">
-        <v>194.0960174206964</v>
+        <v>190.478213343044</v>
       </c>
       <c r="E4" t="n">
-        <v>158.45702851103286</v>
+        <v>158.02251488352042</v>
       </c>
       <c r="F4" t="n">
-        <v>123.15285374423019</v>
+        <v>123.44968701751523</v>
       </c>
     </row>
     <row r="5">
@@ -483,19 +483,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>526.9484400880322</v>
+        <v>529.632200478849</v>
       </c>
       <c r="C5" t="n">
-        <v>1166.092094305532</v>
+        <v>1165.4869048920484</v>
       </c>
       <c r="D5" t="n">
-        <v>338.845283258612</v>
+        <v>336.6230438315787</v>
       </c>
       <c r="E5" t="n">
-        <v>320.0684384890824</v>
+        <v>321.01973698000086</v>
       </c>
       <c r="F5" t="n">
-        <v>524.775357612366</v>
+        <v>525.4424565099137</v>
       </c>
     </row>
     <row r="6">
@@ -503,19 +503,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>419.0762086844716</v>
+        <v>422.7984679370211</v>
       </c>
       <c r="C6" t="n">
-        <v>1083.931827698246</v>
+        <v>1080.246084064549</v>
       </c>
       <c r="D6" t="n">
-        <v>548.388060030088</v>
+        <v>546.9994467019508</v>
       </c>
       <c r="E6" t="n">
-        <v>719.8901177745327</v>
+        <v>719.1803657069702</v>
       </c>
       <c r="F6" t="n">
-        <v>770.8831513784831</v>
+        <v>771.2514402461525</v>
       </c>
     </row>
     <row r="7">
@@ -523,19 +523,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>526.0352145786567</v>
+        <v>524.2529418604358</v>
       </c>
       <c r="C7" t="n">
-        <v>254.13721157396267</v>
+        <v>253.23663563950566</v>
       </c>
       <c r="D7" t="n">
-        <v>63.48559069429124</v>
+        <v>63.20201040981987</v>
       </c>
       <c r="E7" t="n">
-        <v>77.04341703036587</v>
+        <v>77.06508650960913</v>
       </c>
       <c r="F7" t="n">
-        <v>111.00387114423788</v>
+        <v>110.65878221606366</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>212.47945068638595</v>
+        <v>212.59162980143967</v>
       </c>
       <c r="C2" t="n">
-        <v>470.46232458865086</v>
+        <v>470.54949387408493</v>
       </c>
       <c r="D2" t="n">
-        <v>254.34241596415904</v>
+        <v>254.42158160123753</v>
       </c>
       <c r="E2" t="n">
-        <v>396.7537171917126</v>
+        <v>396.6402052378694</v>
       </c>
       <c r="F2" t="n">
-        <v>335.53185298912155</v>
+        <v>335.5464231564456</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>101.11919199283028</v>
+        <v>100.59079001947893</v>
       </c>
       <c r="C3" t="n">
-        <v>218.81076564338892</v>
+        <v>219.58624071625</v>
       </c>
       <c r="D3" t="n">
-        <v>103.91764259762458</v>
+        <v>103.56058941535986</v>
       </c>
       <c r="E3" t="n">
-        <v>125.74292623896774</v>
+        <v>125.78529404665252</v>
       </c>
       <c r="F3" t="n">
-        <v>127.08452334990099</v>
+        <v>126.74358599820025</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>98.43181097907134</v>
+        <v>98.72134480434545</v>
       </c>
       <c r="C4" t="n">
-        <v>212.42314450012307</v>
+        <v>211.80398634493756</v>
       </c>
       <c r="D4" t="n">
-        <v>251.446484300645</v>
+        <v>252.37042919208798</v>
       </c>
       <c r="E4" t="n">
-        <v>214.71485152613656</v>
+        <v>215.49438652213564</v>
       </c>
       <c r="F4" t="n">
-        <v>139.18594398186247</v>
+        <v>139.00703718215934</v>
       </c>
     </row>
     <row r="5">
@@ -634,19 +634,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>654.2453185846036</v>
+        <v>655.1051089802683</v>
       </c>
       <c r="C5" t="n">
-        <v>1341.2051451204898</v>
+        <v>1332.4128345840131</v>
       </c>
       <c r="D5" t="n">
-        <v>441.35592618600907</v>
+        <v>442.2186193952699</v>
       </c>
       <c r="E5" t="n">
-        <v>374.7972186937893</v>
+        <v>375.8321478016695</v>
       </c>
       <c r="F5" t="n">
-        <v>575.9271586685293</v>
+        <v>577.3358509586736</v>
       </c>
     </row>
     <row r="6">
@@ -654,19 +654,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>506.53771593943304</v>
+        <v>507.72247863703393</v>
       </c>
       <c r="C6" t="n">
-        <v>1188.8758445327935</v>
+        <v>1185.336037795863</v>
       </c>
       <c r="D6" t="n">
-        <v>675.9682441195943</v>
+        <v>672.371434605263</v>
       </c>
       <c r="E6" t="n">
-        <v>794.6180951382829</v>
+        <v>795.2999957252537</v>
       </c>
       <c r="F6" t="n">
-        <v>821.564852885116</v>
+        <v>819.9666652823986</v>
       </c>
     </row>
     <row r="7">
@@ -674,19 +674,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>746.5729201871693</v>
+        <v>744.6754666524661</v>
       </c>
       <c r="C7" t="n">
-        <v>295.67521263507774</v>
+        <v>296.985731362466</v>
       </c>
       <c r="D7" t="n">
-        <v>83.49551140213417</v>
+        <v>81.9273933209613</v>
       </c>
       <c r="E7" t="n">
-        <v>88.53842918997383</v>
+        <v>88.63245399093036</v>
       </c>
       <c r="F7" t="n">
-        <v>122.27935020215709</v>
+        <v>122.34559584240861</v>
       </c>
     </row>
   </sheetData>
